--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gip-Dpp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gip-Dpp4.xlsx
@@ -564,10 +564,10 @@
         <v>0.190838</v>
       </c>
       <c r="O2">
-        <v>0.01666947201925028</v>
+        <v>0.003189166373186978</v>
       </c>
       <c r="P2">
-        <v>0.01666947201925028</v>
+        <v>0.003189166373186979</v>
       </c>
       <c r="Q2">
         <v>0.02066711927333333</v>
@@ -576,10 +576,10 @@
         <v>0.18600407346</v>
       </c>
       <c r="S2">
-        <v>0.01666947201925028</v>
+        <v>0.003189166373186978</v>
       </c>
       <c r="T2">
-        <v>0.01666947201925028</v>
+        <v>0.003189166373186979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9980816666666666</v>
+        <v>0.9980816666666668</v>
       </c>
       <c r="N3">
         <v>2.994245</v>
       </c>
       <c r="O3">
-        <v>0.2615437347188718</v>
+        <v>0.05003796658465947</v>
       </c>
       <c r="P3">
-        <v>0.2615437347188718</v>
+        <v>0.05003796658465948</v>
       </c>
       <c r="Q3">
-        <v>0.3242667526833333</v>
+        <v>0.3242667526833334</v>
       </c>
       <c r="R3">
         <v>2.91840077415</v>
       </c>
       <c r="S3">
-        <v>0.2615437347188718</v>
+        <v>0.05003796658465947</v>
       </c>
       <c r="T3">
-        <v>0.2615437347188718</v>
+        <v>0.05003796658465948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9721479999999999</v>
+        <v>15.66265066666667</v>
       </c>
       <c r="N4">
-        <v>2.916444</v>
+        <v>46.987952</v>
       </c>
       <c r="O4">
-        <v>0.2547479100268834</v>
+        <v>0.7852335303415662</v>
       </c>
       <c r="P4">
-        <v>0.2547479100268834</v>
+        <v>0.7852335303415663</v>
       </c>
       <c r="Q4">
-        <v>0.31584116372</v>
+        <v>5.088638575093333</v>
       </c>
       <c r="R4">
-        <v>2.84257047348</v>
+        <v>45.79774717584</v>
       </c>
       <c r="S4">
-        <v>0.2547479100268834</v>
+        <v>0.7852335303415662</v>
       </c>
       <c r="T4">
-        <v>0.2547479100268834</v>
+        <v>0.7852335303415663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,34 +738,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.012441</v>
+        <v>0.03576666666666667</v>
       </c>
       <c r="N5">
-        <v>0.037323</v>
+        <v>0.1073</v>
       </c>
       <c r="O5">
-        <v>0.003260119599736312</v>
+        <v>0.001793131094661246</v>
       </c>
       <c r="P5">
-        <v>0.003260119599736312</v>
+        <v>0.001793131094661246</v>
       </c>
       <c r="Q5">
-        <v>0.00404195649</v>
+        <v>0.01162023233333333</v>
       </c>
       <c r="R5">
-        <v>0.03637760841</v>
+        <v>0.104582091</v>
       </c>
       <c r="S5">
-        <v>0.003260119599736312</v>
+        <v>0.001793131094661246</v>
       </c>
       <c r="T5">
-        <v>0.003260119599736312</v>
+        <v>0.001793131094661246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.769834333333333</v>
+        <v>3.186375666666667</v>
       </c>
       <c r="N6">
-        <v>5.309502999999999</v>
+        <v>9.559127</v>
       </c>
       <c r="O6">
-        <v>0.4637787636352583</v>
+        <v>0.1597462056059261</v>
       </c>
       <c r="P6">
-        <v>0.4637787636352583</v>
+        <v>0.1597462056059261</v>
       </c>
       <c r="Q6">
-        <v>0.5750014765566666</v>
+        <v>1.035221590343333</v>
       </c>
       <c r="R6">
-        <v>5.17501328901</v>
+        <v>9.316994313090001</v>
       </c>
       <c r="S6">
-        <v>0.4637787636352583</v>
+        <v>0.1597462056059261</v>
       </c>
       <c r="T6">
-        <v>0.4637787636352583</v>
+        <v>0.1597462056059261</v>
       </c>
     </row>
   </sheetData>
